--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H2">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I2">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J2">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.283615749600066</v>
+        <v>0.02353333333333333</v>
       </c>
       <c r="N2">
-        <v>0.283615749600066</v>
+        <v>0.0706</v>
       </c>
       <c r="O2">
-        <v>0.001148091234657712</v>
+        <v>8.933327291063576E-05</v>
       </c>
       <c r="P2">
-        <v>0.001148091234657712</v>
+        <v>8.933327291063577E-05</v>
       </c>
       <c r="Q2">
-        <v>1.305834222346856</v>
+        <v>0.1211487371111111</v>
       </c>
       <c r="R2">
-        <v>1.305834222346856</v>
+        <v>1.090338634</v>
       </c>
       <c r="S2">
-        <v>9.474206473567779E-05</v>
+        <v>7.880341417249607E-06</v>
       </c>
       <c r="T2">
-        <v>9.474206473567779E-05</v>
+        <v>7.880341417249607E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H3">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I3">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J3">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.9794562998195</v>
+        <v>0.292517</v>
       </c>
       <c r="N3">
-        <v>23.9794562998195</v>
+        <v>0.877551</v>
       </c>
       <c r="O3">
-        <v>0.09707008030584358</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="P3">
-        <v>0.09707008030584358</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="Q3">
-        <v>110.4071079047294</v>
+        <v>1.505866790376666</v>
       </c>
       <c r="R3">
-        <v>110.4071079047294</v>
+        <v>13.55280111339</v>
       </c>
       <c r="S3">
-        <v>0.008010356280592559</v>
+        <v>9.795186247944489E-05</v>
       </c>
       <c r="T3">
-        <v>0.008010356280592559</v>
+        <v>9.795186247944493E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H4">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I4">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J4">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.0369596986572</v>
+        <v>27.06976999999999</v>
       </c>
       <c r="N4">
-        <v>27.0369596986572</v>
+        <v>81.20930999999999</v>
       </c>
       <c r="O4">
-        <v>0.109447012324223</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="P4">
-        <v>0.109447012324223</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="Q4">
-        <v>124.4845791973997</v>
+        <v>139.3541834017666</v>
       </c>
       <c r="R4">
-        <v>124.4845791973997</v>
+        <v>1254.1876506159</v>
       </c>
       <c r="S4">
-        <v>0.009031717701284863</v>
+        <v>0.009064548003672275</v>
       </c>
       <c r="T4">
-        <v>0.009031717701284863</v>
+        <v>0.009064548003672276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H5">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I5">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J5">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>194.283207597722</v>
+        <v>28.294172</v>
       </c>
       <c r="N5">
-        <v>194.283207597722</v>
+        <v>84.882516</v>
       </c>
       <c r="O5">
-        <v>0.7864684806773418</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="P5">
-        <v>0.7864684806773418</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="Q5">
-        <v>894.5259974672614</v>
+        <v>145.6573600030267</v>
       </c>
       <c r="R5">
-        <v>894.5259974672614</v>
+        <v>1310.91624002724</v>
       </c>
       <c r="S5">
-        <v>0.06490045865659577</v>
+        <v>0.00947454966622029</v>
       </c>
       <c r="T5">
-        <v>0.06490045865659577</v>
+        <v>0.009474549666220291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H6">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I6">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J6">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44917501160389</v>
+        <v>205.3474576666667</v>
       </c>
       <c r="N6">
-        <v>1.44917501160389</v>
+        <v>616.042373</v>
       </c>
       <c r="O6">
-        <v>0.005866335457934059</v>
+        <v>0.7795054027156469</v>
       </c>
       <c r="P6">
-        <v>0.005866335457934059</v>
+        <v>0.7795054027156471</v>
       </c>
       <c r="Q6">
-        <v>6.672345689513926</v>
+        <v>1057.121182661219</v>
       </c>
       <c r="R6">
-        <v>6.672345689513926</v>
+        <v>9514.090643950969</v>
       </c>
       <c r="S6">
-        <v>0.0004840980550491628</v>
+        <v>0.06876238281490979</v>
       </c>
       <c r="T6">
-        <v>0.0004840980550491628</v>
+        <v>0.0687623828149098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.512913319564</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H7">
-        <v>10.512913319564</v>
+        <v>15.44389</v>
       </c>
       <c r="I7">
-        <v>0.188422093866954</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J7">
-        <v>0.188422093866954</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.283615749600066</v>
+        <v>2.405564</v>
       </c>
       <c r="N7">
-        <v>0.283615749600066</v>
+        <v>7.216692</v>
       </c>
       <c r="O7">
-        <v>0.001148091234657712</v>
+        <v>0.00913159654317283</v>
       </c>
       <c r="P7">
-        <v>0.001148091234657712</v>
+        <v>0.009131596543172832</v>
       </c>
       <c r="Q7">
-        <v>2.981627791608662</v>
+        <v>12.38375526798667</v>
       </c>
       <c r="R7">
-        <v>2.981627791608662</v>
+        <v>111.45379741188</v>
       </c>
       <c r="S7">
-        <v>0.0002163257543845026</v>
+        <v>0.0008055240348885821</v>
       </c>
       <c r="T7">
-        <v>0.0002163257543845026</v>
+        <v>0.0008055240348885823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H8">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I8">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J8">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>23.9794562998195</v>
+        <v>0.02353333333333333</v>
       </c>
       <c r="N8">
-        <v>23.9794562998195</v>
+        <v>0.0706</v>
       </c>
       <c r="O8">
-        <v>0.09707008030584358</v>
+        <v>8.933327291063576E-05</v>
       </c>
       <c r="P8">
-        <v>0.09707008030584358</v>
+        <v>8.933327291063577E-05</v>
       </c>
       <c r="Q8">
-        <v>252.0939455302753</v>
+        <v>0.2477233430888889</v>
       </c>
       <c r="R8">
-        <v>252.0939455302753</v>
+        <v>2.2295100878</v>
       </c>
       <c r="S8">
-        <v>0.01829014778306042</v>
+        <v>1.611361840918328E-05</v>
       </c>
       <c r="T8">
-        <v>0.01829014778306042</v>
+        <v>1.611361840918328E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H9">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I9">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J9">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.0369596986572</v>
+        <v>0.292517</v>
       </c>
       <c r="N9">
-        <v>27.0369596986572</v>
+        <v>0.877551</v>
       </c>
       <c r="O9">
-        <v>0.109447012324223</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="P9">
-        <v>0.109447012324223</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="Q9">
-        <v>284.2372137365283</v>
+        <v>3.079176592790334</v>
       </c>
       <c r="R9">
-        <v>284.2372137365283</v>
+        <v>27.712589335113</v>
       </c>
       <c r="S9">
-        <v>0.0206222352296124</v>
+        <v>0.0002002906791586005</v>
       </c>
       <c r="T9">
-        <v>0.0206222352296124</v>
+        <v>0.0002002906791586006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H10">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I10">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J10">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>194.283207597722</v>
+        <v>27.06976999999999</v>
       </c>
       <c r="N10">
-        <v>194.283207597722</v>
+        <v>81.20930999999999</v>
       </c>
       <c r="O10">
-        <v>0.7864684806773418</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="P10">
-        <v>0.7864684806773418</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="Q10">
-        <v>2042.482520921709</v>
+        <v>284.9496000445033</v>
       </c>
       <c r="R10">
-        <v>2042.482520921709</v>
+        <v>2564.54640040053</v>
       </c>
       <c r="S10">
-        <v>0.1481880378895868</v>
+        <v>0.01853506845061008</v>
       </c>
       <c r="T10">
-        <v>0.1481880378895868</v>
+        <v>0.01853506845061008</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H11">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I11">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J11">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.44917501160389</v>
+        <v>28.294172</v>
       </c>
       <c r="N11">
-        <v>1.44917501160389</v>
+        <v>84.882516</v>
       </c>
       <c r="O11">
-        <v>0.005866335457934059</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="P11">
-        <v>0.005866335457934059</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="Q11">
-        <v>15.23505128186985</v>
+        <v>297.8382525965454</v>
       </c>
       <c r="R11">
-        <v>15.23505128186985</v>
+        <v>2680.544273368908</v>
       </c>
       <c r="S11">
-        <v>0.001105347210309892</v>
+        <v>0.01937343445375913</v>
       </c>
       <c r="T11">
-        <v>0.001105347210309892</v>
+        <v>0.01937343445375913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.5157502220847</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H12">
-        <v>14.5157502220847</v>
+        <v>31.579463</v>
       </c>
       <c r="I12">
-        <v>0.2601646154358603</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J12">
-        <v>0.2601646154358603</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.283615749600066</v>
+        <v>205.3474576666667</v>
       </c>
       <c r="N12">
-        <v>0.283615749600066</v>
+        <v>616.042373</v>
       </c>
       <c r="O12">
-        <v>0.001148091234657712</v>
+        <v>0.7795054027156469</v>
       </c>
       <c r="P12">
-        <v>0.001148091234657712</v>
+        <v>0.7795054027156471</v>
       </c>
       <c r="Q12">
-        <v>4.116895380243877</v>
+        <v>2161.587480509522</v>
       </c>
       <c r="R12">
-        <v>4.116895380243877</v>
+        <v>19454.2873245857</v>
       </c>
       <c r="S12">
-        <v>0.0002986927145500058</v>
+        <v>0.1406044153315829</v>
       </c>
       <c r="T12">
-        <v>0.0002986927145500058</v>
+        <v>0.1406044153315829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.5157502220847</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H13">
-        <v>14.5157502220847</v>
+        <v>31.579463</v>
       </c>
       <c r="I13">
-        <v>0.2601646154358603</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J13">
-        <v>0.2601646154358603</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.9794562998195</v>
+        <v>2.405564</v>
       </c>
       <c r="N13">
-        <v>23.9794562998195</v>
+        <v>7.216692</v>
       </c>
       <c r="O13">
-        <v>0.09707008030584358</v>
+        <v>0.00913159654317283</v>
       </c>
       <c r="P13">
-        <v>0.09707008030584358</v>
+        <v>0.009131596543172832</v>
       </c>
       <c r="Q13">
-        <v>348.0797981095753</v>
+        <v>25.32213977737734</v>
       </c>
       <c r="R13">
-        <v>348.0797981095753</v>
+        <v>227.899257996396</v>
       </c>
       <c r="S13">
-        <v>0.02525420011309787</v>
+        <v>0.001647124944257871</v>
       </c>
       <c r="T13">
-        <v>0.02525420011309787</v>
+        <v>0.001647124944257872</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H14">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I14">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J14">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>27.0369596986572</v>
+        <v>0.02353333333333333</v>
       </c>
       <c r="N14">
-        <v>27.0369596986572</v>
+        <v>0.0706</v>
       </c>
       <c r="O14">
-        <v>0.109447012324223</v>
+        <v>8.933327291063576E-05</v>
       </c>
       <c r="P14">
-        <v>0.109447012324223</v>
+        <v>8.933327291063577E-05</v>
       </c>
       <c r="Q14">
-        <v>392.4617537502783</v>
+        <v>0.3734519806444445</v>
       </c>
       <c r="R14">
-        <v>392.4617537502783</v>
+        <v>3.3610678258</v>
       </c>
       <c r="S14">
-        <v>0.02847423987193532</v>
+        <v>2.429186783620549E-05</v>
       </c>
       <c r="T14">
-        <v>0.02847423987193532</v>
+        <v>2.429186783620549E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H15">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I15">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J15">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>194.283207597722</v>
+        <v>0.292517</v>
       </c>
       <c r="N15">
-        <v>194.283207597722</v>
+        <v>0.877551</v>
       </c>
       <c r="O15">
-        <v>0.7864684806773418</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="P15">
-        <v>0.7864684806773418</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="Q15">
-        <v>2820.166513833961</v>
+        <v>4.641971091593667</v>
       </c>
       <c r="R15">
-        <v>2820.166513833961</v>
+        <v>41.777739824343</v>
       </c>
       <c r="S15">
-        <v>0.2046112698278459</v>
+        <v>0.0003019455086618975</v>
       </c>
       <c r="T15">
-        <v>0.2046112698278459</v>
+        <v>0.0003019455086618976</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H16">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I16">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J16">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.44917501160389</v>
+        <v>27.06976999999999</v>
       </c>
       <c r="N16">
-        <v>1.44917501160389</v>
+        <v>81.20930999999999</v>
       </c>
       <c r="O16">
-        <v>0.005866335457934059</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="P16">
-        <v>0.005866335457934059</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="Q16">
-        <v>21.03586249652876</v>
+        <v>429.5719216185366</v>
       </c>
       <c r="R16">
-        <v>21.03586249652876</v>
+        <v>3866.14729456683</v>
       </c>
       <c r="S16">
-        <v>0.001526212908431166</v>
+        <v>0.02794229214715922</v>
       </c>
       <c r="T16">
-        <v>0.001526212908431166</v>
+        <v>0.02794229214715922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.1083783579714</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H17">
-        <v>15.1083783579714</v>
+        <v>47.607193</v>
       </c>
       <c r="I17">
-        <v>0.2707862415117112</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J17">
-        <v>0.2707862415117112</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.283615749600066</v>
+        <v>28.294172</v>
       </c>
       <c r="N17">
-        <v>0.283615749600066</v>
+        <v>84.882516</v>
       </c>
       <c r="O17">
-        <v>0.001148091234657712</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="P17">
-        <v>0.001148091234657712</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="Q17">
-        <v>4.284974053237473</v>
+        <v>449.0020357263987</v>
       </c>
       <c r="R17">
-        <v>4.284974053237473</v>
+        <v>4041.018321537588</v>
       </c>
       <c r="S17">
-        <v>0.000310887310345502</v>
+        <v>0.0292061594940028</v>
       </c>
       <c r="T17">
-        <v>0.000310887310345502</v>
+        <v>0.02920615949400281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.1083783579714</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H18">
-        <v>15.1083783579714</v>
+        <v>47.607193</v>
       </c>
       <c r="I18">
-        <v>0.2707862415117112</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J18">
-        <v>0.2707862415117112</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.9794562998195</v>
+        <v>205.3474576666667</v>
       </c>
       <c r="N18">
-        <v>23.9794562998195</v>
+        <v>616.042373</v>
       </c>
       <c r="O18">
-        <v>0.09707008030584358</v>
+        <v>0.7795054027156469</v>
       </c>
       <c r="P18">
-        <v>0.09707008030584358</v>
+        <v>0.7795054027156471</v>
       </c>
       <c r="Q18">
-        <v>362.2906985961139</v>
+        <v>3258.672016398777</v>
       </c>
       <c r="R18">
-        <v>362.2906985961139</v>
+        <v>29328.04814758899</v>
       </c>
       <c r="S18">
-        <v>0.02628524220925936</v>
+        <v>0.211966287626323</v>
       </c>
       <c r="T18">
-        <v>0.02628524220925936</v>
+        <v>0.2119662876263231</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.1083783579714</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H19">
-        <v>15.1083783579714</v>
+        <v>47.607193</v>
       </c>
       <c r="I19">
-        <v>0.2707862415117112</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J19">
-        <v>0.2707862415117112</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.0369596986572</v>
+        <v>2.405564</v>
       </c>
       <c r="N19">
-        <v>27.0369596986572</v>
+        <v>7.216692</v>
       </c>
       <c r="O19">
-        <v>0.109447012324223</v>
+        <v>0.00913159654317283</v>
       </c>
       <c r="P19">
-        <v>0.109447012324223</v>
+        <v>0.009131596543172832</v>
       </c>
       <c r="Q19">
-        <v>408.4846167765374</v>
+        <v>38.17404987395067</v>
       </c>
       <c r="R19">
-        <v>408.4846167765374</v>
+        <v>343.566448865556</v>
       </c>
       <c r="S19">
-        <v>0.02963674511196227</v>
+        <v>0.002483100967119001</v>
       </c>
       <c r="T19">
-        <v>0.02963674511196227</v>
+        <v>0.002483100967119001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H20">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I20">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J20">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>194.283207597722</v>
+        <v>0.02353333333333333</v>
       </c>
       <c r="N20">
-        <v>194.283207597722</v>
+        <v>0.0706</v>
       </c>
       <c r="O20">
-        <v>0.7864684806773418</v>
+        <v>8.933327291063576E-05</v>
       </c>
       <c r="P20">
-        <v>0.7864684806773418</v>
+        <v>8.933327291063577E-05</v>
       </c>
       <c r="Q20">
-        <v>2935.304208986688</v>
+        <v>0.3558360804444444</v>
       </c>
       <c r="R20">
-        <v>2935.304208986688</v>
+        <v>3.202524724</v>
       </c>
       <c r="S20">
-        <v>0.2129648439500433</v>
+        <v>2.314600935465253E-05</v>
       </c>
       <c r="T20">
-        <v>0.2129648439500433</v>
+        <v>2.314600935465254E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H21">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I21">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J21">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.44917501160389</v>
+        <v>0.292517</v>
       </c>
       <c r="N21">
-        <v>1.44917501160389</v>
+        <v>0.877551</v>
       </c>
       <c r="O21">
-        <v>0.005866335457934059</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="P21">
-        <v>0.005866335457934059</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="Q21">
-        <v>21.89468438222916</v>
+        <v>4.423007198726666</v>
       </c>
       <c r="R21">
-        <v>21.89468438222916</v>
+        <v>39.80706478854</v>
       </c>
       <c r="S21">
-        <v>0.001588522930100847</v>
+        <v>0.0002877026013482249</v>
       </c>
       <c r="T21">
-        <v>0.001588522930100847</v>
+        <v>0.0002877026013482251</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.70442513609964</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H22">
-        <v>5.70442513609964</v>
+        <v>45.36154</v>
       </c>
       <c r="I22">
-        <v>0.1022399496484914</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J22">
-        <v>0.1022399496484914</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.283615749600066</v>
+        <v>27.06976999999999</v>
       </c>
       <c r="N22">
-        <v>0.283615749600066</v>
+        <v>81.20930999999999</v>
       </c>
       <c r="O22">
-        <v>0.001148091234657712</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="P22">
-        <v>0.001148091234657712</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="Q22">
-        <v>1.617864811012358</v>
+        <v>409.3088182152666</v>
       </c>
       <c r="R22">
-        <v>1.617864811012358</v>
+        <v>3683.779363937399</v>
       </c>
       <c r="S22">
-        <v>0.0001173807900232788</v>
+        <v>0.02662424148647135</v>
       </c>
       <c r="T22">
-        <v>0.0001173807900232788</v>
+        <v>0.02662424148647135</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.70442513609964</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H23">
-        <v>5.70442513609964</v>
+        <v>45.36154</v>
       </c>
       <c r="I23">
-        <v>0.1022399496484914</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J23">
-        <v>0.1022399496484914</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.9794562998195</v>
+        <v>28.294172</v>
       </c>
       <c r="N23">
-        <v>23.9794562998195</v>
+        <v>84.882516</v>
       </c>
       <c r="O23">
-        <v>0.09707008030584358</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="P23">
-        <v>0.09707008030584358</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="Q23">
-        <v>136.7890132666932</v>
+        <v>427.8224049816267</v>
       </c>
       <c r="R23">
-        <v>136.7890132666932</v>
+        <v>3850.40164483464</v>
       </c>
       <c r="S23">
-        <v>0.009924440122844463</v>
+        <v>0.02782849163431223</v>
       </c>
       <c r="T23">
-        <v>0.009924440122844463</v>
+        <v>0.02782849163431223</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.70442513609964</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H24">
-        <v>5.70442513609964</v>
+        <v>45.36154</v>
       </c>
       <c r="I24">
-        <v>0.1022399496484914</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J24">
-        <v>0.1022399496484914</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>27.0369596986572</v>
+        <v>205.3474576666667</v>
       </c>
       <c r="N24">
-        <v>27.0369596986572</v>
+        <v>616.042373</v>
       </c>
       <c r="O24">
-        <v>0.109447012324223</v>
+        <v>0.7795054027156469</v>
       </c>
       <c r="P24">
-        <v>0.109447012324223</v>
+        <v>0.7795054027156471</v>
       </c>
       <c r="Q24">
-        <v>154.2303125087331</v>
+        <v>3104.958971614935</v>
       </c>
       <c r="R24">
-        <v>154.2303125087331</v>
+        <v>27944.63074453442</v>
       </c>
       <c r="S24">
-        <v>0.01118985702920637</v>
+        <v>0.2019677411943392</v>
       </c>
       <c r="T24">
-        <v>0.01118985702920637</v>
+        <v>0.2019677411943392</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.70442513609964</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H25">
-        <v>5.70442513609964</v>
+        <v>45.36154</v>
       </c>
       <c r="I25">
-        <v>0.1022399496484914</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J25">
-        <v>0.1022399496484914</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>194.283207597722</v>
+        <v>2.405564</v>
       </c>
       <c r="N25">
-        <v>194.283207597722</v>
+        <v>7.216692</v>
       </c>
       <c r="O25">
-        <v>0.7864684806773418</v>
+        <v>0.00913159654317283</v>
       </c>
       <c r="P25">
-        <v>0.7864684806773418</v>
+        <v>0.009131596543172832</v>
       </c>
       <c r="Q25">
-        <v>1108.27401294251</v>
+        <v>36.37336253618667</v>
       </c>
       <c r="R25">
-        <v>1108.27401294251</v>
+        <v>327.36026282568</v>
       </c>
       <c r="S25">
-        <v>0.08040849786457695</v>
+        <v>0.002365971962346262</v>
       </c>
       <c r="T25">
-        <v>0.08040849786457695</v>
+        <v>0.002365971962346262</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H26">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I26">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J26">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>1.44917501160389</v>
+        <v>0.02353333333333333</v>
       </c>
       <c r="N26">
-        <v>1.44917501160389</v>
+        <v>0.0706</v>
       </c>
       <c r="O26">
-        <v>0.005866335457934059</v>
+        <v>8.933327291063576E-05</v>
       </c>
       <c r="P26">
-        <v>0.005866335457934059</v>
+        <v>8.933327291063577E-05</v>
       </c>
       <c r="Q26">
-        <v>8.266710362800717</v>
+        <v>0.1375235128444444</v>
       </c>
       <c r="R26">
-        <v>8.266710362800717</v>
+        <v>1.2377116156</v>
       </c>
       <c r="S26">
-        <v>0.000599773841840338</v>
+        <v>8.945468685486939E-06</v>
       </c>
       <c r="T26">
-        <v>0.000599773841840338</v>
+        <v>8.945468685486941E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.34877866633504</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H27">
-        <v>5.34877866633504</v>
+        <v>17.531326</v>
       </c>
       <c r="I27">
-        <v>0.09586572677872504</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J27">
-        <v>0.09586572677872504</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.283615749600066</v>
+        <v>0.292517</v>
       </c>
       <c r="N27">
-        <v>0.283615749600066</v>
+        <v>0.877551</v>
       </c>
       <c r="O27">
-        <v>0.001148091234657712</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="P27">
-        <v>0.001148091234657712</v>
+        <v>0.00111040372487254</v>
       </c>
       <c r="Q27">
-        <v>1.516997870897454</v>
+        <v>1.709403629180666</v>
       </c>
       <c r="R27">
-        <v>1.516997870897454</v>
+        <v>15.384632662626</v>
       </c>
       <c r="S27">
-        <v>0.0001100626006187454</v>
+        <v>0.0001111912888161154</v>
       </c>
       <c r="T27">
-        <v>0.0001100626006187454</v>
+        <v>0.0001111912888161155</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.34877866633504</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H28">
-        <v>5.34877866633504</v>
+        <v>17.531326</v>
       </c>
       <c r="I28">
-        <v>0.09586572677872504</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J28">
-        <v>0.09586572677872504</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>23.9794562998195</v>
+        <v>27.06976999999999</v>
       </c>
       <c r="N28">
-        <v>23.9794562998195</v>
+        <v>81.20930999999999</v>
       </c>
       <c r="O28">
-        <v>0.09707008030584358</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="P28">
-        <v>0.09707008030584358</v>
+        <v>0.1027576976361816</v>
       </c>
       <c r="Q28">
-        <v>128.2608042867879</v>
+        <v>158.1896542050066</v>
       </c>
       <c r="R28">
-        <v>128.2608042867879</v>
+        <v>1423.70688784506</v>
       </c>
       <c r="S28">
-        <v>0.009305693796988899</v>
+        <v>0.01028973568803118</v>
       </c>
       <c r="T28">
-        <v>0.009305693796988899</v>
+        <v>0.01028973568803118</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.34877866633504</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H29">
-        <v>5.34877866633504</v>
+        <v>17.531326</v>
       </c>
       <c r="I29">
-        <v>0.09586572677872504</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J29">
-        <v>0.09586572677872504</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.0369596986572</v>
+        <v>28.294172</v>
       </c>
       <c r="N29">
-        <v>27.0369596986572</v>
+        <v>84.882516</v>
       </c>
       <c r="O29">
-        <v>0.109447012324223</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="P29">
-        <v>0.109447012324223</v>
+        <v>0.1074055661072154</v>
       </c>
       <c r="Q29">
-        <v>144.6147132387379</v>
+        <v>165.3447844106907</v>
       </c>
       <c r="R29">
-        <v>144.6147132387379</v>
+        <v>1488.103059696216</v>
       </c>
       <c r="S29">
-        <v>0.01049221738022171</v>
+        <v>0.01075515423262527</v>
       </c>
       <c r="T29">
-        <v>0.01049221738022171</v>
+        <v>0.01075515423262527</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.34877866633504</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H30">
-        <v>5.34877866633504</v>
+        <v>17.531326</v>
       </c>
       <c r="I30">
-        <v>0.09586572677872504</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J30">
-        <v>0.09586572677872504</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>194.283207597722</v>
+        <v>205.3474576666667</v>
       </c>
       <c r="N30">
-        <v>194.283207597722</v>
+        <v>616.042373</v>
       </c>
       <c r="O30">
-        <v>0.7864684806773418</v>
+        <v>0.7795054027156469</v>
       </c>
       <c r="P30">
-        <v>0.7864684806773418</v>
+        <v>0.7795054027156471</v>
       </c>
       <c r="Q30">
-        <v>1039.177876025837</v>
+        <v>1200.004407875178</v>
       </c>
       <c r="R30">
-        <v>1039.177876025837</v>
+        <v>10800.0396708766</v>
       </c>
       <c r="S30">
-        <v>0.07539537248869305</v>
+        <v>0.07805648380459723</v>
       </c>
       <c r="T30">
-        <v>0.07539537248869305</v>
+        <v>0.07805648380459725</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.34877866633504</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H31">
-        <v>5.34877866633504</v>
+        <v>17.531326</v>
       </c>
       <c r="I31">
-        <v>0.09586572677872504</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J31">
-        <v>0.09586572677872504</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.44917501160389</v>
+        <v>2.405564</v>
       </c>
       <c r="N31">
-        <v>1.44917501160389</v>
+        <v>7.216692</v>
       </c>
       <c r="O31">
-        <v>0.005866335457934059</v>
+        <v>0.00913159654317283</v>
       </c>
       <c r="P31">
-        <v>0.005866335457934059</v>
+        <v>0.009131596543172832</v>
       </c>
       <c r="Q31">
-        <v>7.751316385852721</v>
+        <v>14.05757556595467</v>
       </c>
       <c r="R31">
-        <v>7.751316385852721</v>
+        <v>126.518180093592</v>
       </c>
       <c r="S31">
-        <v>0.0005623805122026534</v>
+        <v>0.0009144007407762621</v>
       </c>
       <c r="T31">
-        <v>0.0005623805122026534</v>
+        <v>0.0009144007407762624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H32">
+        <v>17.551901</v>
+      </c>
+      <c r="I32">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J32">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.02353333333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.0706</v>
+      </c>
+      <c r="O32">
+        <v>8.933327291063576E-05</v>
+      </c>
+      <c r="P32">
+        <v>8.933327291063577E-05</v>
+      </c>
+      <c r="Q32">
+        <v>0.1376849122888889</v>
+      </c>
+      <c r="R32">
+        <v>1.2391642106</v>
+      </c>
+      <c r="S32">
+        <v>8.955967207857918E-06</v>
+      </c>
+      <c r="T32">
+        <v>8.955967207857918E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H33">
+        <v>17.551901</v>
+      </c>
+      <c r="I33">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J33">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.292517</v>
+      </c>
+      <c r="N33">
+        <v>0.877551</v>
+      </c>
+      <c r="O33">
+        <v>0.00111040372487254</v>
+      </c>
+      <c r="P33">
+        <v>0.00111040372487254</v>
+      </c>
+      <c r="Q33">
+        <v>1.711409808272333</v>
+      </c>
+      <c r="R33">
+        <v>15.402688274451</v>
+      </c>
+      <c r="S33">
+        <v>0.0001113217844082567</v>
+      </c>
+      <c r="T33">
+        <v>0.0001113217844082567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H34">
+        <v>17.551901</v>
+      </c>
+      <c r="I34">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J34">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>27.06976999999999</v>
+      </c>
+      <c r="N34">
+        <v>81.20930999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.1027576976361816</v>
+      </c>
+      <c r="P34">
+        <v>0.1027576976361816</v>
+      </c>
+      <c r="Q34">
+        <v>158.3753077109233</v>
+      </c>
+      <c r="R34">
+        <v>1425.37776939831</v>
+      </c>
+      <c r="S34">
+        <v>0.01030181186023751</v>
+      </c>
+      <c r="T34">
+        <v>0.01030181186023751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H35">
+        <v>17.551901</v>
+      </c>
+      <c r="I35">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J35">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>28.294172</v>
+      </c>
+      <c r="N35">
+        <v>84.882516</v>
+      </c>
+      <c r="O35">
+        <v>0.1074055661072154</v>
+      </c>
+      <c r="P35">
+        <v>0.1074055661072154</v>
+      </c>
+      <c r="Q35">
+        <v>165.5388352736573</v>
+      </c>
+      <c r="R35">
+        <v>1489.849517462916</v>
+      </c>
+      <c r="S35">
+        <v>0.01076777662629568</v>
+      </c>
+      <c r="T35">
+        <v>0.01076777662629568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H36">
+        <v>17.551901</v>
+      </c>
+      <c r="I36">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J36">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>205.3474576666667</v>
+      </c>
+      <c r="N36">
+        <v>616.042373</v>
+      </c>
+      <c r="O36">
+        <v>0.7795054027156469</v>
+      </c>
+      <c r="P36">
+        <v>0.7795054027156471</v>
+      </c>
+      <c r="Q36">
+        <v>1201.412749189008</v>
+      </c>
+      <c r="R36">
+        <v>10812.71474270107</v>
+      </c>
+      <c r="S36">
+        <v>0.07814809194389484</v>
+      </c>
+      <c r="T36">
+        <v>0.07814809194389485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5.850633666666667</v>
+      </c>
+      <c r="H37">
+        <v>17.551901</v>
+      </c>
+      <c r="I37">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="J37">
+        <v>0.100253432075829</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.405564</v>
+      </c>
+      <c r="N37">
+        <v>7.216692</v>
+      </c>
+      <c r="O37">
+        <v>0.00913159654317283</v>
+      </c>
+      <c r="P37">
+        <v>0.009131596543172832</v>
+      </c>
+      <c r="Q37">
+        <v>14.07407372572133</v>
+      </c>
+      <c r="R37">
+        <v>126.666663531492</v>
+      </c>
+      <c r="S37">
+        <v>0.0009154738937848522</v>
+      </c>
+      <c r="T37">
+        <v>0.0009154738937848524</v>
       </c>
     </row>
   </sheetData>
